--- a/dataanalysis/data/predictions/1200/07231138_1139.xlsx
+++ b/dataanalysis/data/predictions/1200/07231138_1139.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="155">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-23</t>
   </si>
   <si>
@@ -476,12 +479,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -839,13 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,19 +924,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-1.83</v>
@@ -957,7 +957,7 @@
         <v>32464.58</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -977,8 +977,23 @@
       <c r="P2">
         <v>-0.09</v>
       </c>
+      <c r="Q2">
+        <v>4.63</v>
+      </c>
+      <c r="R2">
+        <v>5.05</v>
+      </c>
+      <c r="S2">
+        <v>4.77</v>
+      </c>
       <c r="V2" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -986,22 +1001,25 @@
       <c r="Z2">
         <v>3.925986289978027</v>
       </c>
-      <c r="AA2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>3.31</v>
@@ -1019,7 +1037,7 @@
         <v>109056.05</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -1039,8 +1057,23 @@
       <c r="P3">
         <v>-0.1</v>
       </c>
+      <c r="Q3">
+        <v>-1.13</v>
+      </c>
+      <c r="R3">
+        <v>23.25</v>
+      </c>
+      <c r="S3">
+        <v>-3.12</v>
+      </c>
       <c r="V3" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1048,22 +1081,25 @@
       <c r="Z3">
         <v>4.367274284362793</v>
       </c>
-      <c r="AA3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>15.61</v>
@@ -1081,7 +1117,7 @@
         <v>150863.23</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1101,8 +1137,23 @@
       <c r="P4">
         <v>-4.12</v>
       </c>
+      <c r="Q4">
+        <v>-6.05</v>
+      </c>
+      <c r="R4">
+        <v>6.35</v>
+      </c>
+      <c r="S4">
+        <v>-5.79</v>
+      </c>
       <c r="V4" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1110,22 +1161,25 @@
       <c r="Z4">
         <v>2.07587742805481</v>
       </c>
-      <c r="AA4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1143,7 +1197,7 @@
         <v>46545.85</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1163,8 +1217,23 @@
       <c r="P5">
         <v>-0.23</v>
       </c>
+      <c r="Q5">
+        <v>3.57</v>
+      </c>
+      <c r="R5">
+        <v>42.66</v>
+      </c>
+      <c r="S5">
+        <v>3.54</v>
+      </c>
       <c r="V5" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1172,22 +1241,25 @@
       <c r="Z5">
         <v>1.259472250938416</v>
       </c>
-      <c r="AA5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-0.48</v>
@@ -1205,7 +1277,7 @@
         <v>47735.17</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -1225,8 +1297,23 @@
       <c r="P6">
         <v>-0.45</v>
       </c>
+      <c r="Q6">
+        <v>6.25</v>
+      </c>
+      <c r="R6">
+        <v>6.79</v>
+      </c>
+      <c r="S6">
+        <v>8.119999999999999</v>
+      </c>
       <c r="V6" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1234,22 +1321,25 @@
       <c r="Z6">
         <v>2.595574617385864</v>
       </c>
-      <c r="AA6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300086</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>-5.64</v>
@@ -1267,7 +1357,7 @@
         <v>40128.52</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1287,8 +1377,23 @@
       <c r="P7">
         <v>-1.29</v>
       </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>7.56</v>
+      </c>
+      <c r="S7">
+        <v>22.13</v>
+      </c>
       <c r="V7" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1296,22 +1401,25 @@
       <c r="Z7">
         <v>-0.6846597194671631</v>
       </c>
-      <c r="AA7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300095</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-8.56</v>
@@ -1329,7 +1437,7 @@
         <v>100671.23</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1349,8 +1457,23 @@
       <c r="P8">
         <v>-5.49</v>
       </c>
+      <c r="Q8">
+        <v>2.23</v>
+      </c>
+      <c r="R8">
+        <v>11.65</v>
+      </c>
+      <c r="S8">
+        <v>0.09</v>
+      </c>
       <c r="V8" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1358,22 +1481,25 @@
       <c r="Z8">
         <v>3.993214130401611</v>
       </c>
-      <c r="AA8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300135</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>14.94</v>
@@ -1391,7 +1517,7 @@
         <v>79718.60000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1411,8 +1537,23 @@
       <c r="P9">
         <v>-1.17</v>
       </c>
+      <c r="Q9">
+        <v>-3.51</v>
+      </c>
+      <c r="R9">
+        <v>4.85</v>
+      </c>
+      <c r="S9">
+        <v>-8.66</v>
+      </c>
       <c r="V9" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1420,22 +1561,25 @@
       <c r="Z9">
         <v>2.684239864349365</v>
       </c>
-      <c r="AA9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300195</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-2.77</v>
@@ -1453,7 +1597,7 @@
         <v>25307.61</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -1473,8 +1617,23 @@
       <c r="P10">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="Q10">
+        <v>1.25</v>
+      </c>
+      <c r="R10">
+        <v>8.1</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
       <c r="V10" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1482,22 +1641,25 @@
       <c r="Z10">
         <v>4.044203758239746</v>
       </c>
-      <c r="AA10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0.26</v>
@@ -1515,7 +1677,7 @@
         <v>111739.32</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1535,8 +1697,23 @@
       <c r="P11">
         <v>-0.01</v>
       </c>
+      <c r="Q11">
+        <v>0.48</v>
+      </c>
+      <c r="R11">
+        <v>18.96</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
       <c r="V11" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1544,22 +1721,25 @@
       <c r="Z11">
         <v>2.785539865493774</v>
       </c>
-      <c r="AA11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300283</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-3.82</v>
@@ -1577,7 +1757,7 @@
         <v>27648.3</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1597,8 +1777,23 @@
       <c r="P12">
         <v>-0.98</v>
       </c>
+      <c r="Q12">
+        <v>5.73</v>
+      </c>
+      <c r="R12">
+        <v>8.18</v>
+      </c>
+      <c r="S12">
+        <v>8.199999999999999</v>
+      </c>
       <c r="V12" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1606,22 +1801,25 @@
       <c r="Z12">
         <v>1.388361573219299</v>
       </c>
-      <c r="AA12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300363</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>7.7</v>
@@ -1639,7 +1837,7 @@
         <v>102908.96</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1659,8 +1857,23 @@
       <c r="P13">
         <v>0.28</v>
       </c>
+      <c r="Q13">
+        <v>4.27</v>
+      </c>
+      <c r="R13">
+        <v>22.31</v>
+      </c>
+      <c r="S13">
+        <v>3.53</v>
+      </c>
       <c r="V13" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1668,22 +1881,25 @@
       <c r="Z13">
         <v>3.679751873016357</v>
       </c>
-      <c r="AA13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300405</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-2.11</v>
@@ -1701,7 +1917,7 @@
         <v>33825.48</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1721,8 +1937,23 @@
       <c r="P14">
         <v>-0.05</v>
       </c>
+      <c r="Q14">
+        <v>-1.04</v>
+      </c>
+      <c r="R14">
+        <v>6.89</v>
+      </c>
+      <c r="S14">
+        <v>-0.86</v>
+      </c>
       <c r="V14" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1730,22 +1961,25 @@
       <c r="Z14">
         <v>-1.188507556915283</v>
       </c>
-      <c r="AA14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300414</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>2.21</v>
@@ -1763,7 +1997,7 @@
         <v>56882.11</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K15">
         <v>8</v>
@@ -1783,8 +2017,23 @@
       <c r="P15">
         <v>0.09</v>
       </c>
+      <c r="Q15">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="R15">
+        <v>15.89</v>
+      </c>
+      <c r="S15">
+        <v>10.73</v>
+      </c>
       <c r="V15" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1792,22 +2041,25 @@
       <c r="Z15">
         <v>0.4122190177440643</v>
       </c>
-      <c r="AA15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300436</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0.99</v>
@@ -1825,7 +2077,7 @@
         <v>80040.64999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -1845,8 +2097,23 @@
       <c r="P16">
         <v>-0.14</v>
       </c>
+      <c r="Q16">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R16">
+        <v>74.5</v>
+      </c>
+      <c r="S16">
+        <v>6.26</v>
+      </c>
       <c r="V16" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1854,22 +2121,25 @@
       <c r="Z16">
         <v>3.544311046600342</v>
       </c>
-      <c r="AA16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300485</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-2.71</v>
@@ -1887,7 +2157,7 @@
         <v>53828.92</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1907,8 +2177,23 @@
       <c r="P17">
         <v>-0.75</v>
       </c>
+      <c r="Q17">
+        <v>-3.48</v>
+      </c>
+      <c r="R17">
+        <v>16.34</v>
+      </c>
+      <c r="S17">
+        <v>0.99</v>
+      </c>
       <c r="V17" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1916,22 +2201,25 @@
       <c r="Z17">
         <v>3.467962741851807</v>
       </c>
-      <c r="AA17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300490</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>0.71</v>
@@ -1949,7 +2237,7 @@
         <v>52113.56</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1969,8 +2257,23 @@
       <c r="P18">
         <v>-1.17</v>
       </c>
+      <c r="Q18">
+        <v>10.86</v>
+      </c>
+      <c r="R18">
+        <v>11.44</v>
+      </c>
+      <c r="S18">
+        <v>14.86</v>
+      </c>
       <c r="V18" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1978,22 +2281,25 @@
       <c r="Z18">
         <v>3.361523628234863</v>
       </c>
-      <c r="AA18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300502</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-1.71</v>
@@ -2011,7 +2317,7 @@
         <v>486152.86</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2031,8 +2337,23 @@
       <c r="P19">
         <v>-0.12</v>
       </c>
+      <c r="Q19">
+        <v>-0.8</v>
+      </c>
+      <c r="R19">
+        <v>177.33</v>
+      </c>
+      <c r="S19">
+        <v>2.1</v>
+      </c>
       <c r="V19" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2040,22 +2361,25 @@
       <c r="Z19">
         <v>4.228155136108398</v>
       </c>
-      <c r="AA19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300522</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-4.63</v>
@@ -2073,7 +2397,7 @@
         <v>28665.7</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2093,8 +2417,23 @@
       <c r="P20">
         <v>-0.63</v>
       </c>
+      <c r="Q20">
+        <v>-0.19</v>
+      </c>
+      <c r="R20">
+        <v>15.85</v>
+      </c>
+      <c r="S20">
+        <v>1.21</v>
+      </c>
       <c r="V20" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2102,22 +2441,25 @@
       <c r="Z20">
         <v>4.895386219024658</v>
       </c>
-      <c r="AA20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300527</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-5.4</v>
@@ -2135,7 +2477,7 @@
         <v>74613.82000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2155,8 +2497,23 @@
       <c r="P21">
         <v>-1.1</v>
       </c>
+      <c r="Q21">
+        <v>1.32</v>
+      </c>
+      <c r="R21">
+        <v>11.55</v>
+      </c>
+      <c r="S21">
+        <v>-0.09</v>
+      </c>
       <c r="V21" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -2164,22 +2521,25 @@
       <c r="Z21">
         <v>9.433765411376953</v>
       </c>
-      <c r="AA21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300533</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0.08</v>
@@ -2197,7 +2557,7 @@
         <v>33655.3</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -2217,8 +2577,23 @@
       <c r="P22">
         <v>-0.03</v>
       </c>
+      <c r="Q22">
+        <v>-2.62</v>
+      </c>
+      <c r="R22">
+        <v>36.85</v>
+      </c>
+      <c r="S22">
+        <v>1.04</v>
+      </c>
       <c r="V22" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2226,22 +2601,25 @@
       <c r="Z22">
         <v>0.3886894583702087</v>
       </c>
-      <c r="AA22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300548</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>2.12</v>
@@ -2259,7 +2637,7 @@
         <v>148728.29</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2279,8 +2657,23 @@
       <c r="P23">
         <v>0.37</v>
       </c>
+      <c r="Q23">
+        <v>-6.41</v>
+      </c>
+      <c r="R23">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="S23">
+        <v>3.96</v>
+      </c>
       <c r="V23" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2288,22 +2681,25 @@
       <c r="Z23">
         <v>6.749364852905273</v>
       </c>
-      <c r="AA23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300564</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>19.85</v>
@@ -2321,7 +2717,7 @@
         <v>96495.87</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2341,8 +2737,23 @@
       <c r="P24">
         <v>-12.88</v>
       </c>
+      <c r="Q24">
+        <v>-10.11</v>
+      </c>
+      <c r="R24">
+        <v>23.85</v>
+      </c>
+      <c r="S24">
+        <v>-4.6</v>
+      </c>
       <c r="V24" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -2350,22 +2761,25 @@
       <c r="Z24">
         <v>8.086450576782227</v>
       </c>
-      <c r="AA24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300581</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-3.24</v>
@@ -2383,7 +2797,7 @@
         <v>78495.53999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2403,8 +2817,23 @@
       <c r="P25">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q25">
+        <v>4.18</v>
+      </c>
+      <c r="R25">
+        <v>21.59</v>
+      </c>
+      <c r="S25">
+        <v>4.81</v>
+      </c>
       <c r="V25" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2412,22 +2841,25 @@
       <c r="Z25">
         <v>3.131463050842285</v>
       </c>
-      <c r="AA25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300591</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-7.08</v>
@@ -2445,7 +2877,7 @@
         <v>79240.81</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>22</v>
@@ -2465,8 +2897,23 @@
       <c r="P26">
         <v>-2.19</v>
       </c>
+      <c r="Q26">
+        <v>-0.52</v>
+      </c>
+      <c r="R26">
+        <v>11.94</v>
+      </c>
+      <c r="S26">
+        <v>-1.16</v>
+      </c>
       <c r="V26" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2474,22 +2921,25 @@
       <c r="Z26">
         <v>5.809981346130371</v>
       </c>
-      <c r="AA26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300600</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-5.94</v>
@@ -2507,7 +2957,7 @@
         <v>27629.33</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -2527,8 +2977,23 @@
       <c r="P27">
         <v>-0.64</v>
       </c>
+      <c r="Q27">
+        <v>1.15</v>
+      </c>
+      <c r="R27">
+        <v>14.98</v>
+      </c>
+      <c r="S27">
+        <v>0.6</v>
+      </c>
       <c r="V27" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2536,22 +3001,25 @@
       <c r="Z27">
         <v>4.021596908569336</v>
       </c>
-      <c r="AA27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300617</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-10.44</v>
@@ -2569,7 +3037,7 @@
         <v>80729.69</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2589,8 +3057,23 @@
       <c r="P28">
         <v>-0.97</v>
       </c>
+      <c r="Q28">
+        <v>-3.14</v>
+      </c>
+      <c r="R28">
+        <v>38.7</v>
+      </c>
+      <c r="S28">
+        <v>-1.98</v>
+      </c>
       <c r="V28" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2598,22 +3081,25 @@
       <c r="Z28">
         <v>2.423447132110596</v>
       </c>
-      <c r="AA28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300631</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>6.52</v>
@@ -2631,7 +3117,7 @@
         <v>75879.67</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -2651,8 +3137,23 @@
       <c r="P29">
         <v>0.34</v>
       </c>
+      <c r="Q29">
+        <v>2.03</v>
+      </c>
+      <c r="R29">
+        <v>37</v>
+      </c>
+      <c r="S29">
+        <v>7.4</v>
+      </c>
       <c r="V29" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2660,22 +3161,25 @@
       <c r="Z29">
         <v>2.468634366989136</v>
       </c>
-      <c r="AA29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300644</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-4.1</v>
@@ -2693,7 +3197,7 @@
         <v>37303.03</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -2713,8 +3217,23 @@
       <c r="P30">
         <v>-0.68</v>
       </c>
+      <c r="Q30">
+        <v>-0.77</v>
+      </c>
+      <c r="R30">
+        <v>32.97</v>
+      </c>
+      <c r="S30">
+        <v>0.73</v>
+      </c>
       <c r="V30" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2722,22 +3241,25 @@
       <c r="Z30">
         <v>3.005917072296143</v>
       </c>
-      <c r="AA30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300665</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-7.6</v>
@@ -2755,7 +3277,7 @@
         <v>36322.55</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2775,8 +3297,23 @@
       <c r="P31">
         <v>-0.35</v>
       </c>
+      <c r="Q31">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="R31">
+        <v>10.2</v>
+      </c>
+      <c r="S31">
+        <v>-3.5</v>
+      </c>
       <c r="V31" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2784,22 +3321,25 @@
       <c r="Z31">
         <v>0.9956732392311096</v>
       </c>
-      <c r="AA31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300683</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>10.95</v>
@@ -2817,7 +3357,7 @@
         <v>78863.47</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2837,8 +3377,23 @@
       <c r="P32">
         <v>0.34</v>
       </c>
+      <c r="Q32">
+        <v>-2.63</v>
+      </c>
+      <c r="R32">
+        <v>46.2</v>
+      </c>
+      <c r="S32">
+        <v>2.01</v>
+      </c>
       <c r="V32" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2846,22 +3401,25 @@
       <c r="Z32">
         <v>0.9384264349937439</v>
       </c>
-      <c r="AA32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300697</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-3.03</v>
@@ -2879,7 +3437,7 @@
         <v>22912.7</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2899,8 +3457,23 @@
       <c r="P33">
         <v>-0.2</v>
       </c>
+      <c r="Q33">
+        <v>2.29</v>
+      </c>
+      <c r="R33">
+        <v>14.84</v>
+      </c>
+      <c r="S33">
+        <v>0.88</v>
+      </c>
       <c r="V33" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2908,22 +3481,25 @@
       <c r="Z33">
         <v>1.103745937347412</v>
       </c>
-      <c r="AA33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300722</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-7.07</v>
@@ -2941,7 +3517,7 @@
         <v>110740.94</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2961,8 +3537,23 @@
       <c r="P34">
         <v>0.06</v>
       </c>
+      <c r="Q34">
+        <v>-1.2</v>
+      </c>
+      <c r="R34">
+        <v>39.38</v>
+      </c>
+      <c r="S34">
+        <v>-1.13</v>
+      </c>
       <c r="V34" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2970,22 +3561,25 @@
       <c r="Z34">
         <v>0.8578488230705261</v>
       </c>
-      <c r="AA34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300748</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>1.28</v>
@@ -3003,7 +3597,7 @@
         <v>103838.82</v>
       </c>
       <c r="J35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3023,8 +3617,23 @@
       <c r="P35">
         <v>0</v>
       </c>
+      <c r="Q35">
+        <v>9.94</v>
+      </c>
+      <c r="R35">
+        <v>29.79</v>
+      </c>
+      <c r="S35">
+        <v>10.42</v>
+      </c>
       <c r="V35" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3032,22 +3641,25 @@
       <c r="Z35">
         <v>5.279520034790039</v>
       </c>
-      <c r="AA35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300767</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-2.42</v>
@@ -3065,7 +3677,7 @@
         <v>25691.53</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3085,8 +3697,23 @@
       <c r="P36">
         <v>-0.36</v>
       </c>
+      <c r="Q36">
+        <v>-1.44</v>
+      </c>
+      <c r="R36">
+        <v>13.88</v>
+      </c>
+      <c r="S36">
+        <v>-1.63</v>
+      </c>
       <c r="V36" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3094,22 +3721,25 @@
       <c r="Z36">
         <v>1.6002436876297</v>
       </c>
-      <c r="AA36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300803</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>7.19</v>
@@ -3127,7 +3757,7 @@
         <v>369513.34</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K37">
         <v>19</v>
@@ -3147,8 +3777,23 @@
       <c r="P37">
         <v>0.42</v>
       </c>
+      <c r="Q37">
+        <v>7.76</v>
+      </c>
+      <c r="R37">
+        <v>95.58</v>
+      </c>
+      <c r="S37">
+        <v>3.54</v>
+      </c>
       <c r="V37" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3156,22 +3801,25 @@
       <c r="Z37">
         <v>4.002315044403076</v>
       </c>
-      <c r="AA37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300830</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>0.67</v>
@@ -3189,7 +3837,7 @@
         <v>23119.61</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3209,8 +3857,23 @@
       <c r="P38">
         <v>-0.05</v>
       </c>
+      <c r="Q38">
+        <v>1.16</v>
+      </c>
+      <c r="R38">
+        <v>10.55</v>
+      </c>
+      <c r="S38">
+        <v>0.09</v>
+      </c>
       <c r="V38" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3218,22 +3881,25 @@
       <c r="Z38">
         <v>3.892466068267822</v>
       </c>
-      <c r="AA38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300835</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>4.59</v>
@@ -3251,7 +3917,7 @@
         <v>52755.47</v>
       </c>
       <c r="J39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -3271,8 +3937,23 @@
       <c r="P39">
         <v>0.32</v>
       </c>
+      <c r="Q39">
+        <v>15.14</v>
+      </c>
+      <c r="R39">
+        <v>63.58</v>
+      </c>
+      <c r="S39">
+        <v>22.32</v>
+      </c>
       <c r="V39" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3280,22 +3961,25 @@
       <c r="Z39">
         <v>2.28341007232666</v>
       </c>
-      <c r="AA39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300865</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>7.8</v>
@@ -3313,7 +3997,7 @@
         <v>81970.22</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -3333,8 +4017,23 @@
       <c r="P40">
         <v>-2.19</v>
       </c>
+      <c r="Q40">
+        <v>-6.58</v>
+      </c>
+      <c r="R40">
+        <v>43.18</v>
+      </c>
+      <c r="S40">
+        <v>-8.65</v>
+      </c>
       <c r="V40" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3342,22 +4041,25 @@
       <c r="Z40">
         <v>8.745939254760742</v>
       </c>
-      <c r="AA40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300872</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-5.04</v>
@@ -3375,7 +4077,7 @@
         <v>122986.74</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K41">
         <v>28</v>
@@ -3395,8 +4097,23 @@
       <c r="P41">
         <v>-1.18</v>
       </c>
+      <c r="Q41">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="R41">
+        <v>26.41</v>
+      </c>
+      <c r="S41">
+        <v>9.59</v>
+      </c>
       <c r="V41" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -3404,22 +4121,25 @@
       <c r="Z41">
         <v>3.542775869369507</v>
       </c>
-      <c r="AA41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>300881</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>12.57</v>
@@ -3437,7 +4157,7 @@
         <v>64456.44</v>
       </c>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3457,8 +4177,23 @@
       <c r="P42">
         <v>0.71</v>
       </c>
+      <c r="Q42">
+        <v>-3.52</v>
+      </c>
+      <c r="R42">
+        <v>41.49</v>
+      </c>
+      <c r="S42">
+        <v>-3.51</v>
+      </c>
       <c r="V42" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3466,22 +4201,25 @@
       <c r="Z42">
         <v>0.9957165122032166</v>
       </c>
-      <c r="AA42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>300950</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>2.6</v>
@@ -3499,7 +4237,7 @@
         <v>38645.2</v>
       </c>
       <c r="J43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -3519,8 +4257,23 @@
       <c r="P43">
         <v>0.48</v>
       </c>
+      <c r="Q43">
+        <v>-0.67</v>
+      </c>
+      <c r="R43">
+        <v>29.83</v>
+      </c>
+      <c r="S43">
+        <v>-1.84</v>
+      </c>
       <c r="V43" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3528,22 +4281,25 @@
       <c r="Z43">
         <v>7.019765377044678</v>
       </c>
-      <c r="AA43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301007</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-0.64</v>
@@ -3561,7 +4317,7 @@
         <v>19382.33</v>
       </c>
       <c r="J44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -3581,8 +4337,23 @@
       <c r="P44">
         <v>0.17</v>
       </c>
+      <c r="Q44">
+        <v>1.17</v>
+      </c>
+      <c r="R44">
+        <v>33.66</v>
+      </c>
+      <c r="S44">
+        <v>3.86</v>
+      </c>
       <c r="V44" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3590,22 +4361,25 @@
       <c r="Z44">
         <v>6.506355285644531</v>
       </c>
-      <c r="AA44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301012</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-4</v>
@@ -3623,7 +4397,7 @@
         <v>31707.27</v>
       </c>
       <c r="J45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -3643,8 +4417,23 @@
       <c r="P45">
         <v>-2.12</v>
       </c>
+      <c r="Q45">
+        <v>0.14</v>
+      </c>
+      <c r="R45">
+        <v>22.39</v>
+      </c>
+      <c r="S45">
+        <v>1.5</v>
+      </c>
       <c r="V45" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3652,22 +4441,25 @@
       <c r="Z45">
         <v>-1.947462797164917</v>
       </c>
-      <c r="AA45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301038</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>20.02</v>
@@ -3685,7 +4477,7 @@
         <v>41749.69</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -3705,8 +4497,23 @@
       <c r="P46">
         <v>0.12</v>
       </c>
+      <c r="Q46">
+        <v>19.99</v>
+      </c>
+      <c r="R46">
+        <v>33.38</v>
+      </c>
+      <c r="S46">
+        <v>19.99</v>
+      </c>
       <c r="V46" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3714,22 +4521,25 @@
       <c r="Z46">
         <v>16.18783378601074</v>
       </c>
-      <c r="AA46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301120</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-2.93</v>
@@ -3747,7 +4557,7 @@
         <v>21437.62</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3767,8 +4577,23 @@
       <c r="P47">
         <v>-0.59</v>
       </c>
+      <c r="Q47">
+        <v>1.66</v>
+      </c>
+      <c r="R47">
+        <v>12.24</v>
+      </c>
+      <c r="S47">
+        <v>-0.08</v>
+      </c>
       <c r="V47" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3776,22 +4601,25 @@
       <c r="Z47">
         <v>2.918993234634399</v>
       </c>
-      <c r="AA47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301132</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>-0.97</v>
@@ -3809,7 +4637,7 @@
         <v>18667.57</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -3829,8 +4657,23 @@
       <c r="P48">
         <v>0.09</v>
       </c>
+      <c r="Q48">
+        <v>0.52</v>
+      </c>
+      <c r="R48">
+        <v>37.16</v>
+      </c>
+      <c r="S48">
+        <v>1.59</v>
+      </c>
       <c r="V48" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3838,22 +4681,25 @@
       <c r="Z48">
         <v>5.311588764190674</v>
       </c>
-      <c r="AA48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301141</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>2.23</v>
@@ -3871,7 +4717,7 @@
         <v>47317.55</v>
       </c>
       <c r="J49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K49">
         <v>19</v>
@@ -3891,8 +4737,23 @@
       <c r="P49">
         <v>-0.12</v>
       </c>
+      <c r="Q49">
+        <v>3.98</v>
+      </c>
+      <c r="R49">
+        <v>73.2</v>
+      </c>
+      <c r="S49">
+        <v>6.4</v>
+      </c>
       <c r="V49" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3900,22 +4761,25 @@
       <c r="Z49">
         <v>4.244950294494629</v>
       </c>
-      <c r="AA49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301151</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>0.98</v>
@@ -3933,7 +4797,7 @@
         <v>86342.91</v>
       </c>
       <c r="J50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3953,8 +4817,23 @@
       <c r="P50">
         <v>-7.52</v>
       </c>
+      <c r="Q50">
+        <v>1.49</v>
+      </c>
+      <c r="R50">
+        <v>26.47</v>
+      </c>
+      <c r="S50">
+        <v>2.56</v>
+      </c>
       <c r="V50" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -3962,22 +4841,25 @@
       <c r="Z50">
         <v>11.01813220977783</v>
       </c>
-      <c r="AA50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301161</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>-8.029999999999999</v>
@@ -3995,7 +4877,7 @@
         <v>86202.05</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -4015,8 +4897,23 @@
       <c r="P51">
         <v>-10.84</v>
       </c>
+      <c r="Q51">
+        <v>-0.03</v>
+      </c>
+      <c r="R51">
+        <v>31.77</v>
+      </c>
+      <c r="S51">
+        <v>-2.73</v>
+      </c>
       <c r="V51" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4024,22 +4921,25 @@
       <c r="Z51">
         <v>2.003847122192383</v>
       </c>
-      <c r="AA51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301165</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>0.7</v>
@@ -4057,7 +4957,7 @@
         <v>30760.01</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -4077,8 +4977,23 @@
       <c r="P52">
         <v>-0.06</v>
       </c>
+      <c r="Q52">
+        <v>-4.21</v>
+      </c>
+      <c r="R52">
+        <v>63.58</v>
+      </c>
+      <c r="S52">
+        <v>2.15</v>
+      </c>
       <c r="V52" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4086,22 +5001,25 @@
       <c r="Z52">
         <v>2.642972469329834</v>
       </c>
-      <c r="AA52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301183</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-1.1</v>
@@ -4119,7 +5037,7 @@
         <v>28225.23</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K53">
         <v>6</v>
@@ -4139,8 +5057,23 @@
       <c r="P53">
         <v>0.12</v>
       </c>
+      <c r="Q53">
+        <v>-2.43</v>
+      </c>
+      <c r="R53">
+        <v>69.59</v>
+      </c>
+      <c r="S53">
+        <v>1.44</v>
+      </c>
       <c r="V53" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4148,22 +5081,25 @@
       <c r="Z53">
         <v>4.273871421813965</v>
       </c>
-      <c r="AA53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301201</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-10.79</v>
@@ -4181,7 +5117,7 @@
         <v>43683.41</v>
       </c>
       <c r="J54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -4201,8 +5137,23 @@
       <c r="P54">
         <v>0.48</v>
       </c>
+      <c r="Q54">
+        <v>-1.27</v>
+      </c>
+      <c r="R54">
+        <v>28.32</v>
+      </c>
+      <c r="S54">
+        <v>-0.14</v>
+      </c>
       <c r="V54" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -4210,22 +5161,25 @@
       <c r="Z54">
         <v>11.48060321807861</v>
       </c>
-      <c r="AA54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301217</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-0.95</v>
@@ -4243,7 +5197,7 @@
         <v>61464.52</v>
       </c>
       <c r="J55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K55">
         <v>13</v>
@@ -4263,8 +5217,23 @@
       <c r="P55">
         <v>-0.08</v>
       </c>
+      <c r="Q55">
+        <v>20.02</v>
+      </c>
+      <c r="R55">
+        <v>23.44</v>
+      </c>
+      <c r="S55">
+        <v>18.2</v>
+      </c>
       <c r="V55" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4272,22 +5241,25 @@
       <c r="Z55">
         <v>4.56190013885498</v>
       </c>
-      <c r="AA55" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301306</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>2.32</v>
@@ -4305,7 +5277,7 @@
         <v>26011.92</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4325,8 +5297,23 @@
       <c r="P56">
         <v>1.08</v>
       </c>
+      <c r="Q56">
+        <v>-1.26</v>
+      </c>
+      <c r="R56">
+        <v>57.85</v>
+      </c>
+      <c r="S56">
+        <v>0.96</v>
+      </c>
       <c r="V56" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4334,22 +5321,25 @@
       <c r="Z56">
         <v>4.487742900848389</v>
       </c>
-      <c r="AA56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301357</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-8.43</v>
@@ -4367,7 +5357,7 @@
         <v>53928.24</v>
       </c>
       <c r="J57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -4387,8 +5377,23 @@
       <c r="P57">
         <v>-1.63</v>
       </c>
+      <c r="Q57">
+        <v>1.13</v>
+      </c>
+      <c r="R57">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="S57">
+        <v>-0.55</v>
+      </c>
       <c r="V57" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4396,22 +5401,25 @@
       <c r="Z57">
         <v>0.5428035855293274</v>
       </c>
-      <c r="AA57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301377</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>5.99</v>
@@ -4429,7 +5437,7 @@
         <v>44622.34</v>
       </c>
       <c r="J58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K58">
         <v>7</v>
@@ -4449,8 +5457,23 @@
       <c r="P58">
         <v>-0.41</v>
       </c>
+      <c r="Q58">
+        <v>-2.01</v>
+      </c>
+      <c r="R58">
+        <v>49.55</v>
+      </c>
+      <c r="S58">
+        <v>2.97</v>
+      </c>
       <c r="V58" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4458,22 +5481,25 @@
       <c r="Z58">
         <v>6.219090461730957</v>
       </c>
-      <c r="AA58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301388</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-7.29</v>
@@ -4491,7 +5517,7 @@
         <v>21945.44</v>
       </c>
       <c r="J59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K59">
         <v>13</v>
@@ -4511,8 +5537,23 @@
       <c r="P59">
         <v>-1.87</v>
       </c>
+      <c r="Q59">
+        <v>-0.2</v>
+      </c>
+      <c r="R59">
+        <v>35.45</v>
+      </c>
+      <c r="S59">
+        <v>0.65</v>
+      </c>
       <c r="V59" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -4520,22 +5561,25 @@
       <c r="Z59">
         <v>9.609555244445801</v>
       </c>
-      <c r="AA59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301389</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>0.22</v>
@@ -4553,7 +5597,7 @@
         <v>27793.81</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K60">
         <v>12</v>
@@ -4573,8 +5617,23 @@
       <c r="P60">
         <v>-1.43</v>
       </c>
+      <c r="Q60">
+        <v>4.34</v>
+      </c>
+      <c r="R60">
+        <v>33.9</v>
+      </c>
+      <c r="S60">
+        <v>6.2</v>
+      </c>
       <c r="V60" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4582,22 +5641,25 @@
       <c r="Z60">
         <v>1.364072322845459</v>
       </c>
-      <c r="AA60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301421</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>1.26</v>
@@ -4615,7 +5677,7 @@
         <v>31927.95</v>
       </c>
       <c r="J61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K61">
         <v>23</v>
@@ -4635,8 +5697,23 @@
       <c r="P61">
         <v>0.35</v>
       </c>
+      <c r="Q61">
+        <v>4.28</v>
+      </c>
+      <c r="R61">
+        <v>80.45</v>
+      </c>
+      <c r="S61">
+        <v>6.08</v>
+      </c>
       <c r="V61" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4644,22 +5721,25 @@
       <c r="Z61">
         <v>2.232786178588867</v>
       </c>
-      <c r="AA61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>301511</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>-1.45</v>
@@ -4677,7 +5757,7 @@
         <v>54054.73</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K62">
         <v>22</v>
@@ -4697,8 +5777,23 @@
       <c r="P62">
         <v>0.27</v>
       </c>
+      <c r="Q62">
+        <v>7.82</v>
+      </c>
+      <c r="R62">
+        <v>29.37</v>
+      </c>
+      <c r="S62">
+        <v>8.140000000000001</v>
+      </c>
       <c r="V62" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>1</v>
@@ -4706,22 +5801,25 @@
       <c r="Z62">
         <v>3.824112415313721</v>
       </c>
-      <c r="AA62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>301526</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-1.22</v>
@@ -4739,7 +5837,7 @@
         <v>31353.18</v>
       </c>
       <c r="J63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K63">
         <v>12</v>
@@ -4759,8 +5857,23 @@
       <c r="P63">
         <v>-0.73</v>
       </c>
+      <c r="Q63">
+        <v>1.87</v>
+      </c>
+      <c r="R63">
+        <v>4.99</v>
+      </c>
+      <c r="S63">
+        <v>2.67</v>
+      </c>
       <c r="V63" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4768,22 +5881,25 @@
       <c r="Z63">
         <v>1.464198112487793</v>
       </c>
-      <c r="AA63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>301529</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>7.09</v>
@@ -4801,7 +5917,7 @@
         <v>35048.53</v>
       </c>
       <c r="J64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -4821,8 +5937,23 @@
       <c r="P64">
         <v>-0.5</v>
       </c>
+      <c r="Q64">
+        <v>1.69</v>
+      </c>
+      <c r="R64">
+        <v>58.22</v>
+      </c>
+      <c r="S64">
+        <v>8.94</v>
+      </c>
       <c r="V64" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -4830,22 +5961,25 @@
       <c r="Z64">
         <v>5.817500591278076</v>
       </c>
-      <c r="AA64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>301626</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>7.08</v>
@@ -4863,7 +5997,7 @@
         <v>37273.46</v>
       </c>
       <c r="J65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -4883,8 +6017,23 @@
       <c r="P65">
         <v>1.37</v>
       </c>
+      <c r="Q65">
+        <v>2.92</v>
+      </c>
+      <c r="R65">
+        <v>142.88</v>
+      </c>
+      <c r="S65">
+        <v>3.12</v>
+      </c>
       <c r="V65" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>1</v>
@@ -4892,22 +6041,25 @@
       <c r="Z65">
         <v>2.445100069046021</v>
       </c>
-      <c r="AA65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688062</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>-1.02</v>
@@ -4925,7 +6077,7 @@
         <v>44750.07</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K66">
         <v>15</v>
@@ -4945,8 +6097,23 @@
       <c r="P66">
         <v>-0.6</v>
       </c>
+      <c r="Q66">
+        <v>-0.54</v>
+      </c>
+      <c r="R66">
+        <v>34.42</v>
+      </c>
+      <c r="S66">
+        <v>4.08</v>
+      </c>
       <c r="V66" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4954,22 +6121,25 @@
       <c r="Z66">
         <v>3.379949808120728</v>
       </c>
-      <c r="AA66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>688117</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>-1.34</v>
@@ -4987,7 +6157,7 @@
         <v>27740.21</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K67">
         <v>7</v>
@@ -5007,8 +6177,23 @@
       <c r="P67">
         <v>-0.16</v>
       </c>
+      <c r="Q67">
+        <v>1.11</v>
+      </c>
+      <c r="R67">
+        <v>40.29</v>
+      </c>
+      <c r="S67">
+        <v>1.03</v>
+      </c>
       <c r="V67" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -5016,22 +6201,25 @@
       <c r="Z67">
         <v>5.750669479370117</v>
       </c>
-      <c r="AA67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>688202</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>10.21</v>
@@ -5049,7 +6237,7 @@
         <v>65545.25999999999</v>
       </c>
       <c r="J68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K68">
         <v>12</v>
@@ -5069,8 +6257,23 @@
       <c r="P68">
         <v>0.26</v>
       </c>
+      <c r="Q68">
+        <v>3.13</v>
+      </c>
+      <c r="R68">
+        <v>68.5</v>
+      </c>
+      <c r="S68">
+        <v>4.72</v>
+      </c>
       <c r="V68" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -5078,22 +6281,25 @@
       <c r="Z68">
         <v>6.61762809753418</v>
       </c>
-      <c r="AA68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>688221</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>-5.83</v>
@@ -5111,7 +6317,7 @@
         <v>61723.92</v>
       </c>
       <c r="J69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K69">
         <v>13</v>
@@ -5131,8 +6337,23 @@
       <c r="P69">
         <v>-0.61</v>
       </c>
+      <c r="Q69">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="R69">
+        <v>24.2</v>
+      </c>
+      <c r="S69">
+        <v>7.75</v>
+      </c>
       <c r="V69" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5140,22 +6361,25 @@
       <c r="Z69">
         <v>4.889964580535889</v>
       </c>
-      <c r="AA69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>688222</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>-1.74</v>
@@ -5173,7 +6397,7 @@
         <v>67388.97</v>
       </c>
       <c r="J70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K70">
         <v>4</v>
@@ -5193,8 +6417,23 @@
       <c r="P70">
         <v>0.18</v>
       </c>
+      <c r="Q70">
+        <v>0.75</v>
+      </c>
+      <c r="R70">
+        <v>25.93</v>
+      </c>
+      <c r="S70">
+        <v>7.06</v>
+      </c>
       <c r="V70" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -5202,22 +6441,25 @@
       <c r="Z70">
         <v>6.502214431762695</v>
       </c>
-      <c r="AA70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>688257</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>-7.27</v>
@@ -5235,7 +6477,7 @@
         <v>35379.65</v>
       </c>
       <c r="J71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -5255,8 +6497,23 @@
       <c r="P71">
         <v>-0.49</v>
       </c>
+      <c r="Q71">
+        <v>1.44</v>
+      </c>
+      <c r="R71">
+        <v>18.18</v>
+      </c>
+      <c r="S71">
+        <v>1.06</v>
+      </c>
       <c r="V71" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -5264,22 +6521,25 @@
       <c r="Z71">
         <v>7.960833549499512</v>
       </c>
-      <c r="AA71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688313</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>2.91</v>
@@ -5297,7 +6557,7 @@
         <v>137207.04</v>
       </c>
       <c r="J72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K72">
         <v>26</v>
@@ -5317,8 +6577,23 @@
       <c r="P72">
         <v>0.16</v>
       </c>
+      <c r="Q72">
+        <v>-7.19</v>
+      </c>
+      <c r="R72">
+        <v>59.3</v>
+      </c>
+      <c r="S72">
+        <v>4.04</v>
+      </c>
       <c r="V72" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5326,22 +6601,25 @@
       <c r="Z72">
         <v>6.664628505706787</v>
       </c>
-      <c r="AA72" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688321</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>-4.09</v>
@@ -5359,7 +6637,7 @@
         <v>50021.36</v>
       </c>
       <c r="J73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K73">
         <v>17</v>
@@ -5379,8 +6657,23 @@
       <c r="P73">
         <v>-0.19</v>
       </c>
+      <c r="Q73">
+        <v>-0.66</v>
+      </c>
+      <c r="R73">
+        <v>37.29</v>
+      </c>
+      <c r="S73">
+        <v>6.6</v>
+      </c>
       <c r="V73" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -5388,22 +6681,25 @@
       <c r="Z73">
         <v>5.03378438949585</v>
       </c>
-      <c r="AA73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>688360</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
         <v>-3.15</v>
@@ -5421,7 +6717,7 @@
         <v>22502.7</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -5441,8 +6737,23 @@
       <c r="P74">
         <v>-0.44</v>
       </c>
+      <c r="Q74">
+        <v>1.6</v>
+      </c>
+      <c r="R74">
+        <v>23.78</v>
+      </c>
+      <c r="S74">
+        <v>4.48</v>
+      </c>
       <c r="V74" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -5450,22 +6761,25 @@
       <c r="Z74">
         <v>5.768136978149414</v>
       </c>
-      <c r="AA74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>688499</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
         <v>-1.05</v>
@@ -5483,7 +6797,7 @@
         <v>52846.05</v>
       </c>
       <c r="J75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K75">
         <v>27</v>
@@ -5503,8 +6817,23 @@
       <c r="P75">
         <v>-0.19</v>
       </c>
+      <c r="Q75">
+        <v>-0.42</v>
+      </c>
+      <c r="R75">
+        <v>55.3</v>
+      </c>
+      <c r="S75">
+        <v>4.93</v>
+      </c>
       <c r="V75" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -5512,22 +6841,25 @@
       <c r="Z75">
         <v>3.273994445800781</v>
       </c>
-      <c r="AA75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>688500</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
         <v>5.9</v>
@@ -5545,7 +6877,7 @@
         <v>18959.75</v>
       </c>
       <c r="J76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -5565,8 +6897,23 @@
       <c r="P76">
         <v>0.28</v>
       </c>
+      <c r="Q76">
+        <v>-1.79</v>
+      </c>
+      <c r="R76">
+        <v>69.02</v>
+      </c>
+      <c r="S76">
+        <v>5.09</v>
+      </c>
       <c r="V76" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -5574,22 +6921,25 @@
       <c r="Z76">
         <v>0.7153975367546082</v>
       </c>
-      <c r="AA76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>688553</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>-1.56</v>
@@ -5607,7 +6957,7 @@
         <v>16957.75</v>
       </c>
       <c r="J77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -5627,8 +6977,23 @@
       <c r="P77">
         <v>-0.3</v>
       </c>
+      <c r="Q77">
+        <v>0.88</v>
+      </c>
+      <c r="R77">
+        <v>23.09</v>
+      </c>
+      <c r="S77">
+        <v>7.7</v>
+      </c>
       <c r="V77" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -5636,22 +7001,25 @@
       <c r="Z77">
         <v>3.883273124694824</v>
       </c>
-      <c r="AA77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>688668</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>-1.64</v>
@@ -5669,7 +7037,7 @@
         <v>37120.3</v>
       </c>
       <c r="J78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K78">
         <v>5</v>
@@ -5689,8 +7057,23 @@
       <c r="P78">
         <v>-0.32</v>
       </c>
+      <c r="Q78">
+        <v>1.07</v>
+      </c>
+      <c r="R78">
+        <v>81.89</v>
+      </c>
+      <c r="S78">
+        <v>5.92</v>
+      </c>
       <c r="V78" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -5698,22 +7081,25 @@
       <c r="Z78">
         <v>1.302868247032166</v>
       </c>
-      <c r="AA78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79">
         <v>688799</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>-1.86</v>
@@ -5731,7 +7117,7 @@
         <v>24394.94</v>
       </c>
       <c r="J79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K79">
         <v>11</v>
@@ -5751,8 +7137,23 @@
       <c r="P79">
         <v>-0.18</v>
       </c>
+      <c r="Q79">
+        <v>-2.39</v>
+      </c>
+      <c r="R79">
+        <v>56.97</v>
+      </c>
+      <c r="S79">
+        <v>-0.14</v>
+      </c>
       <c r="V79" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -5760,8 +7161,11 @@
       <c r="Z79">
         <v>4.45766019821167</v>
       </c>
-      <c r="AA79" t="s">
-        <v>154</v>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
